--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -389,20 +389,18 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.923076923076923</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.888888888888889</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.91304347826087</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.888888888888889</v>
-      </c>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="F2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -389,16 +389,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.937888198757764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.933333333333333</v>
+        <v>0.934010152284264</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F2"/>
     </row>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -389,16 +389,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.937888198757764</v>
+        <v>0.926697319867922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.934010152284264</v>
+        <v>0.938200629712153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.935064935064935</v>
+        <v>0.939944604303759</v>
       </c>
       <c r="E2" t="n">
-        <v>0.882352941176471</v>
+        <v>0.890109378331297</v>
       </c>
       <c r="F2"/>
     </row>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Preferred share of global tax for low-income</t>
@@ -383,24 +386,30 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.926697319867922</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.938200629712153</v>
+        <v>0.92462161691559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.939944604303759</v>
+        <v>0.933517256712941</v>
       </c>
       <c r="E2" t="n">
-        <v>0.890109378331297</v>
-      </c>
-      <c r="F2"/>
+        <v>0.925880254242414</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.939586344215755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.927701324682096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -394,21 +394,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.92462161691559</v>
+        <v>0.91926516436649</v>
       </c>
       <c r="D2" t="n">
-        <v>0.933517256712941</v>
+        <v>0.94009912165198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.925880254242414</v>
+        <v>0.924587201256548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.939586344215755</v>
+        <v>0.940371388026531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.927701324682096</v>
+        <v>0.885884998337274</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global tax for low-income</t>
+    <t xml:space="preserve">Preferred share of global tax for low-income (in %)</t>
   </si>
 </sst>
 </file>
@@ -394,23 +394,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>0.899640518898826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.91926516436649</v>
+        <v>0.919020900751089</v>
       </c>
       <c r="D2" t="n">
-        <v>0.94009912165198</v>
+        <v>0.940062200388914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.924587201256548</v>
+        <v>0.924585186072393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.940371388026531</v>
+        <v>0.936181423688134</v>
       </c>
       <c r="G2" t="n">
-        <v>0.885884998337274</v>
+        <v>0.885884740362292</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -395,10 +395,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.899640518898826</v>
+        <v>0.819713374808426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.919020900751089</v>
+        <v>0.919710244065154</v>
       </c>
       <c r="D2" t="n">
         <v>0.940062200388914</v>
@@ -407,7 +407,7 @@
         <v>0.924585186072393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.936181423688134</v>
+        <v>0.938123771206704</v>
       </c>
       <c r="G2" t="n">
         <v>0.885884740362292</v>

--- a/xlsx/country_comparison/global_tax_global_share_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_positive.xlsx
@@ -395,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.819713374808426</v>
+        <v>0.875311102920443</v>
       </c>
       <c r="C2" t="n">
         <v>0.919710244065154</v>
